--- a/系统设计.xlsx
+++ b/系统设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\Micro.ERP.System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31991E6A-50E2-497B-8AC2-BF78C38302D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8443EB8E-241B-493E-84B5-46A3B60ACA9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2D98055-981D-41C8-8F0C-C958C29CCE00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B2D98055-981D-41C8-8F0C-C958C29CCE00}"/>
   </bookViews>
   <sheets>
     <sheet name="用户信息汇总" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="资金信息汇总" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="191">
   <si>
     <t>UserID</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -539,7 +538,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>用户登录信息表</t>
+      <t>用户人事更新表</t>
     </r>
     <r>
       <rPr>
@@ -549,7 +548,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> UserLoginInfo</t>
+      <t xml:space="preserve"> UserUpdateInfo</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -562,43 +561,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>登录信息</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="15"/>
-        <color theme="3"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户人事更新表</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="15"/>
-        <color theme="3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> UserUpdateInfo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="3"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>人力资源更新</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -619,30 +581,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="15"/>
-        <color theme="3"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户工作资源表</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="15"/>
-        <color theme="3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> UserUpdateInfo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <i/>
         <sz val="11"/>
         <color rgb="FF7F7F7F"/>
@@ -1090,19 +1028,6 @@
   </si>
   <si>
     <t>RejectNote</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="3"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>职位薪水等信息</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2887,7 +2812,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2981,6 +2906,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3002,7 +2945,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3022,6 +2965,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3048,13 +2994,16 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3063,10 +3012,13 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3390,8 +3342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9082C4AC-7DF3-4FB3-83C6-1AF9FE118293}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3408,10 +3360,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
@@ -3431,11 +3383,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3445,7 +3397,7 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -3455,9 +3407,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
@@ -3467,14 +3419,14 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
@@ -3484,14 +3436,14 @@
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
@@ -3503,9 +3455,9 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
@@ -3519,9 +3471,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
@@ -3533,89 +3485,109 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="22.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="10"/>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>17</v>
+      <c r="H13" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3625,10 +3597,10 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="22.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="7"/>
+      <c r="A16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
@@ -3649,10 +3621,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="12"/>
+      <c r="A17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="1" t="s">
         <v>45</v>
       </c>
@@ -3662,7 +3634,7 @@
       <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -3670,8 +3642,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
@@ -3681,13 +3653,13 @@
       <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
@@ -3702,8 +3674,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1" t="s">
         <v>47</v>
       </c>
@@ -3713,16 +3685,16 @@
       <c r="E20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="1" t="s">
         <v>48</v>
       </c>
@@ -3732,14 +3704,14 @@
       <c r="E21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="1" t="s">
         <v>49</v>
       </c>
@@ -3749,15 +3721,15 @@
       <c r="E22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>42</v>
@@ -3766,129 +3738,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="22.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>66</v>
-      </c>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H30" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B30"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A2:B7"/>
-    <mergeCell ref="A11:B13"/>
     <mergeCell ref="A17:B23"/>
+    <mergeCell ref="A2:B13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3899,8 +3772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D301BF4C-2DFD-40C3-9DEF-3DDD16D333E9}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3917,10 +3790,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="8"/>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
@@ -3941,116 +3814,116 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="10"/>
+      <c r="A2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="4"/>
@@ -4062,10 +3935,10 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="22.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="7"/>
+      <c r="A10" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
@@ -4086,111 +3959,111 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="10"/>
+      <c r="A11" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="11"/>
       <c r="C11" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>95</v>
+      <c r="F12" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -4200,10 +4073,10 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="22.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="7"/>
+      <c r="A19" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="8"/>
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
@@ -4224,157 +4097,157 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="12"/>
+      <c r="A20" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="13"/>
       <c r="C20" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B30" s="7"/>
+      <c r="A30" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="8"/>
       <c r="C30" s="1" t="s">
         <v>19</v>
       </c>
@@ -4395,108 +4268,108 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="9"/>
+      <c r="A31" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="10"/>
       <c r="C31" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>95</v>
+      <c r="F32" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>101</v>
+      <c r="F33" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4521,8 +4394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D201527A-A493-4615-83DB-78196B6B04BD}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4539,10 +4412,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="8"/>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
@@ -4564,89 +4437,87 @@
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>9</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="F4"/>
       <c r="G4" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -4660,10 +4531,10 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="22.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="7"/>
+      <c r="A9" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
@@ -4684,73 +4555,73 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="10"/>
+      <c r="A10" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="11"/>
       <c r="C10" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="4">
@@ -4758,22 +4629,20 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>9</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F14"/>
       <c r="G14" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -4783,10 +4652,10 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="22.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="7"/>
+      <c r="A17" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="8"/>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
@@ -4807,115 +4676,113 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="12"/>
+      <c r="A18" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="13"/>
       <c r="C18" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>9</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F23"/>
       <c r="G23" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="22.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B26" s="7"/>
+      <c r="A26" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" s="8"/>
       <c r="C26" s="1" t="s">
         <v>19</v>
       </c>
@@ -4936,20 +4803,20 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B27" s="9"/>
+      <c r="A27" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="10"/>
       <c r="C27" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -4957,30 +4824,30 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>95</v>
+      <c r="F28" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>7</v>
@@ -4990,65 +4857,63 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>9</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F32"/>
       <c r="G32" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>14</v>

--- a/系统设计.xlsx
+++ b/系统设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\Micro.ERP.System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8443EB8E-241B-493E-84B5-46A3B60ACA9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3A2325-BAE7-46FC-8A08-B122640299B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B2D98055-981D-41C8-8F0C-C958C29CCE00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B2D98055-981D-41C8-8F0C-C958C29CCE00}"/>
   </bookViews>
   <sheets>
     <sheet name="用户信息汇总" sheetId="1" r:id="rId1"/>
@@ -2973,25 +2973,34 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3010,15 +3019,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3343,7 +3343,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F30" sqref="A26:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3384,10 +3384,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3408,8 +3408,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
@@ -3425,8 +3425,8 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
@@ -3442,8 +3442,8 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
@@ -3456,8 +3456,8 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
@@ -3472,8 +3472,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
@@ -3486,8 +3486,8 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
@@ -3503,8 +3503,8 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
@@ -3520,8 +3520,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
@@ -3536,8 +3536,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="1" t="s">
         <v>51</v>
       </c>
@@ -3552,8 +3552,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="1" t="s">
         <v>52</v>
       </c>
@@ -3572,8 +3572,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="1" t="s">
         <v>53</v>
       </c>
@@ -3621,10 +3621,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="1" t="s">
         <v>45</v>
       </c>
@@ -3642,8 +3642,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
@@ -3658,8 +3658,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
@@ -3674,8 +3674,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="1" t="s">
         <v>47</v>
       </c>
@@ -3693,8 +3693,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1" t="s">
         <v>48</v>
       </c>
@@ -3710,8 +3710,8 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="1" t="s">
         <v>49</v>
       </c>
@@ -3726,8 +3726,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
@@ -3773,7 +3773,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3814,10 +3814,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="1" t="s">
         <v>101</v>
       </c>
@@ -3838,8 +3838,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="1" t="s">
         <v>102</v>
       </c>
@@ -3858,8 +3858,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="1" t="s">
         <v>103</v>
       </c>
@@ -3875,8 +3875,8 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="1" t="s">
         <v>104</v>
       </c>
@@ -3895,8 +3895,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="1" t="s">
         <v>105</v>
       </c>
@@ -3912,8 +3912,8 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="1" t="s">
         <v>106</v>
       </c>
@@ -3959,10 +3959,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="1" t="s">
         <v>108</v>
       </c>
@@ -3980,8 +3980,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="1" t="s">
         <v>99</v>
       </c>
@@ -4000,8 +4000,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="1" t="s">
         <v>110</v>
       </c>
@@ -4017,8 +4017,8 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="1" t="s">
         <v>111</v>
       </c>
@@ -4037,8 +4037,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="1" t="s">
         <v>112</v>
       </c>
@@ -4051,8 +4051,8 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="1" t="s">
         <v>113</v>
       </c>
@@ -4097,10 +4097,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1" t="s">
         <v>99</v>
       </c>
@@ -4118,8 +4118,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1" t="s">
         <v>101</v>
       </c>
@@ -4134,8 +4134,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="1" t="s">
         <v>115</v>
       </c>
@@ -4150,8 +4150,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="1" t="s">
         <v>116</v>
       </c>
@@ -4166,8 +4166,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="1" t="s">
         <v>117</v>
       </c>
@@ -4183,8 +4183,8 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="1" t="s">
         <v>118</v>
       </c>
@@ -4202,8 +4202,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="1" t="s">
         <v>119</v>
       </c>
@@ -4215,8 +4215,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="1" t="s">
         <v>120</v>
       </c>
@@ -4231,8 +4231,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="1" t="s">
         <v>121</v>
       </c>
@@ -4268,10 +4268,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="1" t="s">
         <v>123</v>
       </c>
@@ -4289,8 +4289,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="1" t="s">
         <v>124</v>
       </c>
@@ -4306,8 +4306,8 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="1" t="s">
         <v>125</v>
       </c>
@@ -4322,8 +4322,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="1" t="s">
         <v>126</v>
       </c>
@@ -4341,8 +4341,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="1" t="s">
         <v>127</v>
       </c>
@@ -4358,8 +4358,8 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="1" t="s">
         <v>121</v>
       </c>
@@ -4436,10 +4436,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="1" t="s">
         <v>142</v>
       </c>
@@ -4457,8 +4457,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="1" t="s">
         <v>139</v>
       </c>
@@ -4474,8 +4474,8 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="1" t="s">
         <v>189</v>
       </c>
@@ -4491,8 +4491,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="1" t="s">
         <v>164</v>
       </c>
@@ -4511,8 +4511,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="1" t="s">
         <v>165</v>
       </c>
@@ -4555,10 +4555,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="1" t="s">
         <v>144</v>
       </c>
@@ -4576,8 +4576,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="1" t="s">
         <v>145</v>
       </c>
@@ -4593,8 +4593,8 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="1" t="s">
         <v>146</v>
       </c>
@@ -4610,8 +4610,8 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="1" t="s">
         <v>147</v>
       </c>
@@ -4629,8 +4629,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="1" t="s">
         <v>140</v>
       </c>
@@ -4676,10 +4676,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
         <v>149</v>
       </c>
@@ -4697,8 +4697,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="1" t="s">
         <v>150</v>
       </c>
@@ -4713,8 +4713,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="1" t="s">
         <v>151</v>
       </c>
@@ -4729,8 +4729,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1" t="s">
         <v>152</v>
       </c>
@@ -4745,8 +4745,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="1" t="s">
         <v>144</v>
       </c>
@@ -4762,8 +4762,8 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="1" t="s">
         <v>153</v>
       </c>
@@ -4803,10 +4803,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="1" t="s">
         <v>155</v>
       </c>
@@ -4824,8 +4824,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="1" t="s">
         <v>99</v>
       </c>
@@ -4841,8 +4841,8 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="1" t="s">
         <v>156</v>
       </c>
@@ -4857,8 +4857,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="1" t="s">
         <v>157</v>
       </c>
@@ -4873,8 +4873,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="1" t="s">
         <v>158</v>
       </c>
@@ -4890,8 +4890,8 @@
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="1" t="s">
         <v>190</v>
       </c>
@@ -4907,8 +4907,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="1" t="s">
         <v>121</v>
       </c>

--- a/系统设计.xlsx
+++ b/系统设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\Micro.ERP.System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3A2325-BAE7-46FC-8A08-B122640299B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762A370E-0BEE-46EE-90B6-E9E827BA4111}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B2D98055-981D-41C8-8F0C-C958C29CCE00}"/>
   </bookViews>
@@ -2337,7 +2337,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>违规记录表</t>
+      <t>工资记录表</t>
     </r>
     <r>
       <rPr>
@@ -2347,7 +2347,160 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>EmployeeVielationInfo</t>
+      <t>FundsSalaryInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttachedType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttachedID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关记录类型</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关记录编号</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如：</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工资</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>货流</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注资</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2361,7 +2514,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>工资记录表</t>
+      <t>货流资金表</t>
     </r>
     <r>
       <rPr>
@@ -2371,160 +2524,117 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>FundsSalaryInfo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttachedType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttachedID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>相关记录类型</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>相关记录编号</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如：</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工资</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>货流</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注资</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>等</t>
+      <t>FundsGoodsInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfirmDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateTime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetsUpdateID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalAssets</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViolateUserID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViolateFor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FundsPunish</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalaryID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmployeeID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseSalary</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerformanceBonus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViolationRecordID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PayWagesDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FundsForGoodsID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoodsOrderID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FundsState</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FundsUpdate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FundsNote</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更新时间</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最后确认时间</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2538,7 +2648,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>货流资金表</t>
+      <t>违规记录表</t>
     </r>
     <r>
       <rPr>
@@ -2548,117 +2658,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>FundsGoodsInfo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConfirmDate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateTime</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AssetsUpdateID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotalAssets</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ViolateUserID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ViolateFor</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FundsPunish</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordDate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SalaryID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmployeeID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseSalary</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PerformanceBonus</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ViolationRecordID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PayWagesDate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FundsForGoodsID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoodsOrderID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FundsState</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FundsUpdate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FundsNote</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>更新时间</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最后确认时间</t>
+      <t>EmployeeViolationInfo</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2667,7 +2667,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2786,6 +2786,14 @@
       <color rgb="FF9C5700"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2945,7 +2953,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3019,6 +3027,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3773,7 +3784,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4394,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D201527A-A493-4615-83DB-78196B6B04BD}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="A26:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4444,7 +4455,7 @@
         <v>142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -4463,7 +4474,7 @@
         <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>43</v>
@@ -4477,13 +4488,13 @@
       <c r="A4" s="21"/>
       <c r="B4" s="22"/>
       <c r="C4" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="4" t="s">
@@ -4494,10 +4505,10 @@
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>90</v>
@@ -4507,17 +4518,17 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23"/>
       <c r="B6" s="24"/>
       <c r="C6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -4531,8 +4542,8 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="22.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>160</v>
+      <c r="A9" s="25" t="s">
+        <v>190</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="4" t="s">
@@ -4563,7 +4574,7 @@
         <v>144</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
@@ -4582,7 +4593,7 @@
         <v>145</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
@@ -4599,7 +4610,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>93</v>
@@ -4616,7 +4627,7 @@
         <v>147</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>43</v>
@@ -4635,7 +4646,7 @@
         <v>140</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>96</v>
@@ -4653,7 +4664,7 @@
     </row>
     <row r="17" spans="1:8" ht="22.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="1" t="s">
@@ -4684,7 +4695,7 @@
         <v>149</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>7</v>
@@ -4703,7 +4714,7 @@
         <v>150</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>7</v>
@@ -4719,7 +4730,7 @@
         <v>151</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>43</v>
@@ -4735,7 +4746,7 @@
         <v>152</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>43</v>
@@ -4751,7 +4762,7 @@
         <v>144</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>7</v>
@@ -4768,7 +4779,7 @@
         <v>153</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>137</v>
@@ -4780,7 +4791,7 @@
     </row>
     <row r="26" spans="1:8" ht="22.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="1" t="s">
@@ -4811,7 +4822,7 @@
         <v>155</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>7</v>
@@ -4830,7 +4841,7 @@
         <v>99</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>7</v>
@@ -4863,7 +4874,7 @@
         <v>157</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>90</v>
@@ -4879,7 +4890,7 @@
         <v>158</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>43</v>
@@ -4893,10 +4904,10 @@
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>96</v>
@@ -4913,7 +4924,7 @@
         <v>121</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>14</v>
